--- a/results/by_outcome/full_results_education_observed_Brothers_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_Brothers_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.555717673372223</v>
+        <v>0.533984259394677</v>
       </c>
       <c r="I2" t="n">
-        <v>0.241783545380147</v>
+        <v>0.243997347946986</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.444536027962792</v>
+        <v>0.466259480364939</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.554635189963703</v>
+        <v>0.535068033019811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25330250118235</v>
+        <v>0.253105913070893</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.604924804778172</v>
+        <v>0.60493272865191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395531930183655</v>
+        <v>0.395523933953698</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00045673496183</v>
+        <v>1.00045666260561</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.395351359452848</v>
+        <v>0.395343395207135</v>
       </c>
       <c r="K4" t="n">
-        <v>0.253186861809288</v>
+        <v>0.25299038138037</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.00108198752923217</v>
+        <v>0.00108327808914099</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0491846685099439</v>
+        <v>0.0709160851578038</v>
       </c>
       <c r="N4" t="n">
-        <v>0.252104874280056</v>
+        <v>0.254073659469511</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.395351359452848</v>
+        <v>0.395343395207135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32559921652965</v>
+        <v>0.327274826249135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.465103502376046</v>
+        <v>0.463411964165134</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252104874280056</v>
+        <v>0.254073659469511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.173705244401904</v>
+        <v>0.182857610814146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.330504504158207</v>
+        <v>0.325289708124875</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.444536027962792</v>
+        <v>0.466259480364939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36111711729095</v>
+        <v>0.39656656692804</v>
       </c>
       <c r="E4" t="n">
-        <v>0.527954938634634</v>
+        <v>0.535952393801837</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_Brothers_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_Brothers_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.533984259394677</v>
+        <v>0.532225852319976</v>
       </c>
       <c r="I2" t="n">
-        <v>0.243997347946986</v>
+        <v>0.245215098480355</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.466259480364939</v>
+        <v>0.468017138572981</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.535068033019811</v>
+        <v>0.534730000368156</v>
       </c>
       <c r="G3" t="n">
-        <v>0.253105913070893</v>
+        <v>0.253820808618324</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.60493272865191</v>
+        <v>0.604931489434978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395523933953698</v>
+        <v>0.39552527286429</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00045666260561</v>
+        <v>1.00045676229927</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.395343395207135</v>
+        <v>0.395344694061389</v>
       </c>
       <c r="K4" t="n">
-        <v>0.25299038138037</v>
+        <v>0.253704925388954</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00108327808914099</v>
+        <v>0.0025030043383499</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0709160851578038</v>
+        <v>0.0726724445115922</v>
       </c>
       <c r="N4" t="n">
-        <v>0.254073659469511</v>
+        <v>0.256207929727304</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.395343395207135</v>
+        <v>0.395344694061389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.327274826249135</v>
+        <v>0.326016293277687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.463411964165134</v>
+        <v>0.46467309484509</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000000000000000000000000000530384602207649</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.254073659469511</v>
+        <v>0.256207929727304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182857610814146</v>
+        <v>0.185942182321547</v>
       </c>
       <c r="E3" t="n">
-        <v>0.325289708124875</v>
+        <v>0.326473677133061</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00000000000104711206389144</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466259480364939</v>
+        <v>0.468017138572981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39656656692804</v>
+        <v>0.393333246754846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.535952393801837</v>
+        <v>0.542701030391116</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000000000000000000000000853525934003967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.211809208845677</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.172532998790099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.251085418901255</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000000000000000000000013698588809404</v>
       </c>
     </row>
   </sheetData>
